--- a/biology/Zoologie/Amphisbaena_bassleri/Amphisbaena_bassleri.xlsx
+++ b/biology/Zoologie/Amphisbaena_bassleri/Amphisbaena_bassleri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amphisbaena bassleri est une espèce d'amphisbènes de la famille des Amphisbaenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amphisbaena bassleri est une espèce d'amphisbènes de la famille des Amphisbaenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Pérou, en Bolivie et en Argentine[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Pérou, en Bolivie et en Argentine. 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Harvey Bassler (1883–1950)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Harvey Bassler (1883–1950).
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vanzolini, 1951 : Amphisbaena fuliginosa. Contribution to the knowledge of the Brazilian lizards of the family Amphisbaenidae Gray, 1825. 6. On the geographical distribution and differentiation of Amphisbaena fuliginosa Linné. Bulletin of the Museum of Comparative Zoology, vol. 106, no 1, p. 1-67 (texte intégral).</t>
         </is>
